--- a/Slots.xlsx
+++ b/Slots.xlsx
@@ -25,9 +25,6 @@
     <t>Slot 2</t>
   </si>
   <si>
-    <t>Tequila</t>
-  </si>
-  <si>
     <t>Slot 3</t>
   </si>
   <si>
@@ -37,9 +34,6 @@
     <t>Slot 4</t>
   </si>
   <si>
-    <t>Triple Sec</t>
-  </si>
-  <si>
     <t>Slot 5</t>
   </si>
   <si>
@@ -49,15 +43,9 @@
     <t>Slot 6</t>
   </si>
   <si>
-    <t>Limettensaft</t>
-  </si>
-  <si>
     <t>Slot 7</t>
   </si>
   <si>
-    <t>Cranberrysaft</t>
-  </si>
-  <si>
     <t>Slot 8</t>
   </si>
   <si>
@@ -73,7 +61,19 @@
     <t xml:space="preserve">Slot 10 </t>
   </si>
   <si>
-    <t>Milch</t>
+    <t>Sahne</t>
+  </si>
+  <si>
+    <t>Gin</t>
+  </si>
+  <si>
+    <t>Zitronensaft</t>
+  </si>
+  <si>
+    <t>Ginger Ale</t>
+  </si>
+  <si>
+    <t>Tonic Water</t>
   </si>
 </sst>
 </file>
@@ -418,7 +418,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,28 +443,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -472,31 +472,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Slots.xlsx
+++ b/Slots.xlsx
@@ -70,10 +70,10 @@
     <t>Zitronensaft</t>
   </si>
   <si>
-    <t>Ginger Ale</t>
-  </si>
-  <si>
     <t>Tonic Water</t>
+  </si>
+  <si>
+    <t>Zuckersirup</t>
   </si>
 </sst>
 </file>
@@ -418,20 +418,20 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -478,10 +478,10 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
